--- a/Gopt_absencjaP18.xlsx
+++ b/Gopt_absencjaP18.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" tabRatio="663"/>
   </bookViews>
   <sheets>
-    <sheet name="Struktura kompetencji WEiI" sheetId="9" r:id="rId1"/>
+    <sheet name="Gopt_absencjaP18" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1224,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CZ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="EB14" sqref="EA14:EB14"/>
     </sheetView>
   </sheetViews>
